--- a/data/pca/factorExposure/factorExposure_2016-10-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-10-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01069583664092246</v>
+        <v>0.01336236691393426</v>
       </c>
       <c r="C2">
-        <v>0.05414531644084603</v>
+        <v>0.04323198720610876</v>
       </c>
       <c r="D2">
-        <v>0.02125674825646408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06501866239610581</v>
+      </c>
+      <c r="E2">
+        <v>0.05252009805200863</v>
+      </c>
+      <c r="F2">
+        <v>0.08437326935450661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05898031667060331</v>
+        <v>0.03241583710081349</v>
       </c>
       <c r="C3">
-        <v>0.09904394207076284</v>
+        <v>0.07981683709726126</v>
       </c>
       <c r="D3">
-        <v>0.05447164198147302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09666077269353628</v>
+      </c>
+      <c r="E3">
+        <v>0.06469113077011118</v>
+      </c>
+      <c r="F3">
+        <v>0.0176555092467004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06607498697347393</v>
+        <v>0.05603889287511608</v>
       </c>
       <c r="C4">
-        <v>0.05756742507140507</v>
+        <v>0.06599514712871307</v>
       </c>
       <c r="D4">
-        <v>0.01696123046503178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05924882713165231</v>
+      </c>
+      <c r="E4">
+        <v>0.04737670674805164</v>
+      </c>
+      <c r="F4">
+        <v>0.08061262452456418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.02884373628463507</v>
+        <v>0.03265562556073813</v>
       </c>
       <c r="C6">
-        <v>0.04129351506578258</v>
+        <v>0.03665343924601316</v>
       </c>
       <c r="D6">
-        <v>0.02734668050622935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06977902327621736</v>
+      </c>
+      <c r="E6">
+        <v>0.05908059859162909</v>
+      </c>
+      <c r="F6">
+        <v>0.07191132248190407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0216517238375095</v>
+        <v>0.02015012539053443</v>
       </c>
       <c r="C7">
-        <v>0.04136212408051819</v>
+        <v>0.03680295679798436</v>
       </c>
       <c r="D7">
-        <v>-0.005125926081019554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04062229044074456</v>
+      </c>
+      <c r="E7">
+        <v>0.03307641461119622</v>
+      </c>
+      <c r="F7">
+        <v>0.1076606079305029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002108720365118772</v>
+        <v>0.003824712318098384</v>
       </c>
       <c r="C8">
-        <v>0.02103891162692993</v>
+        <v>0.02707350802007779</v>
       </c>
       <c r="D8">
-        <v>0.0300516271988383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0361087149157474</v>
+      </c>
+      <c r="E8">
+        <v>0.04044533681077375</v>
+      </c>
+      <c r="F8">
+        <v>0.05218008729388793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03088670698312379</v>
+        <v>0.03532707687085199</v>
       </c>
       <c r="C9">
-        <v>0.04119060042795874</v>
+        <v>0.05106066495712758</v>
       </c>
       <c r="D9">
-        <v>0.01242426013020494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0459661855228176</v>
+      </c>
+      <c r="E9">
+        <v>0.03995027942162298</v>
+      </c>
+      <c r="F9">
+        <v>0.08827510734038017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07473828813837401</v>
+        <v>0.1016883303138792</v>
       </c>
       <c r="C10">
-        <v>-0.1917384578557562</v>
+        <v>-0.1893394524061248</v>
       </c>
       <c r="D10">
-        <v>0.006730118658443885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-5.028827633630517e-05</v>
+      </c>
+      <c r="E10">
+        <v>0.04575439997018717</v>
+      </c>
+      <c r="F10">
+        <v>0.03863940151312353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03997988715387255</v>
+        <v>0.03512493671203004</v>
       </c>
       <c r="C11">
-        <v>0.05416116579040041</v>
+        <v>0.0518254178833844</v>
       </c>
       <c r="D11">
-        <v>-0.001944102233873277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0341696174741957</v>
+      </c>
+      <c r="E11">
+        <v>0.004794090091538594</v>
+      </c>
+      <c r="F11">
+        <v>0.06381769964792902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03480255983505274</v>
+        <v>0.03583513559317592</v>
       </c>
       <c r="C12">
-        <v>0.04591888482531184</v>
+        <v>0.04751356469369573</v>
       </c>
       <c r="D12">
-        <v>-0.0005628865056495091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02662948680515298</v>
+      </c>
+      <c r="E12">
+        <v>0.01436293266075041</v>
+      </c>
+      <c r="F12">
+        <v>0.0660918149737927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01198281773822514</v>
+        <v>0.01176945891751587</v>
       </c>
       <c r="C13">
-        <v>0.04197002761185173</v>
+        <v>0.04106708333016558</v>
       </c>
       <c r="D13">
-        <v>0.01441246598981303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06656513558956684</v>
+      </c>
+      <c r="E13">
+        <v>0.06396270253797419</v>
+      </c>
+      <c r="F13">
+        <v>0.1140458014464825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.005819804863115086</v>
+        <v>0.005260505109090582</v>
       </c>
       <c r="C14">
-        <v>0.03389647693773627</v>
+        <v>0.02972577698007873</v>
       </c>
       <c r="D14">
-        <v>-0.01811036993645155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03096462093051238</v>
+      </c>
+      <c r="E14">
+        <v>0.02756207951015135</v>
+      </c>
+      <c r="F14">
+        <v>0.09711007429240383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001388144073782921</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002817711909379266</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.003292418193869362</v>
+      </c>
+      <c r="E15">
+        <v>2.980534581358469e-05</v>
+      </c>
+      <c r="F15">
+        <v>0.002470056244593241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03388458108413046</v>
+        <v>0.03268808782780702</v>
       </c>
       <c r="C16">
-        <v>0.04208573459135245</v>
+        <v>0.04606988947422653</v>
       </c>
       <c r="D16">
-        <v>0.003926695228641837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02947424995278821</v>
+      </c>
+      <c r="E16">
+        <v>0.01921732671940771</v>
+      </c>
+      <c r="F16">
+        <v>0.06793182205625435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02382469891897315</v>
+        <v>0.01604128561711376</v>
       </c>
       <c r="C19">
-        <v>0.06064491253782212</v>
+        <v>0.05025988177748672</v>
       </c>
       <c r="D19">
-        <v>0.06803153626801491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1026227313584712</v>
+      </c>
+      <c r="E19">
+        <v>0.08128573281154081</v>
+      </c>
+      <c r="F19">
+        <v>0.09408686992186027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01357755404163866</v>
+        <v>0.01292533116594092</v>
       </c>
       <c r="C20">
-        <v>0.04520400567363417</v>
+        <v>0.04030730003233521</v>
       </c>
       <c r="D20">
-        <v>0.01441225936749316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04277723735722332</v>
+      </c>
+      <c r="E20">
+        <v>0.05518754140340248</v>
+      </c>
+      <c r="F20">
+        <v>0.08800348492171876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.008049371263441971</v>
+        <v>0.007212790300070297</v>
       </c>
       <c r="C21">
-        <v>0.05142382783116391</v>
+        <v>0.04463139642558637</v>
       </c>
       <c r="D21">
-        <v>0.03365700948265594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07394244556307679</v>
+      </c>
+      <c r="E21">
+        <v>0.07172823231297633</v>
+      </c>
+      <c r="F21">
+        <v>0.1325468660267712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.000424459114327035</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02342987913928598</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0334830341804149</v>
+      </c>
+      <c r="E22">
+        <v>0.01563009979196804</v>
+      </c>
+      <c r="F22">
+        <v>0.01384652708765707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0003569620335846809</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02355961896168597</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03317985532258356</v>
+      </c>
+      <c r="E23">
+        <v>0.0159280466515987</v>
+      </c>
+      <c r="F23">
+        <v>0.01371737028279291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02907215718107322</v>
+        <v>0.03171391898659115</v>
       </c>
       <c r="C24">
-        <v>0.04724345651716503</v>
+        <v>0.05344554892613543</v>
       </c>
       <c r="D24">
-        <v>-0.001005279819242967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02777604747178291</v>
+      </c>
+      <c r="E24">
+        <v>0.01645025816757819</v>
+      </c>
+      <c r="F24">
+        <v>0.07547107010063422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04548630145668724</v>
+        <v>0.04211922610625724</v>
       </c>
       <c r="C25">
-        <v>0.05757613360445634</v>
+        <v>0.05841822166165757</v>
       </c>
       <c r="D25">
-        <v>-0.0110950713527892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02512510533427997</v>
+      </c>
+      <c r="E25">
+        <v>0.01212905715745229</v>
+      </c>
+      <c r="F25">
+        <v>0.0782929154934153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01091120856747471</v>
+        <v>0.0133912058027818</v>
       </c>
       <c r="C26">
-        <v>0.01693103046606214</v>
+        <v>0.01551285960289528</v>
       </c>
       <c r="D26">
-        <v>0.002717365576323755</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0274847964569805</v>
+      </c>
+      <c r="E26">
+        <v>0.02840212688634188</v>
+      </c>
+      <c r="F26">
+        <v>0.07311326566300791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08755329016502753</v>
+        <v>0.1359417529075194</v>
       </c>
       <c r="C28">
-        <v>-0.216592202578002</v>
+        <v>-0.2394417917458982</v>
       </c>
       <c r="D28">
-        <v>0.001678249882483563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01450499143065366</v>
+      </c>
+      <c r="E28">
+        <v>0.04795797452142589</v>
+      </c>
+      <c r="F28">
+        <v>0.05271065581617218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01113008337181885</v>
+        <v>0.005946754969033194</v>
       </c>
       <c r="C29">
-        <v>0.02675993290277031</v>
+        <v>0.02628649396803151</v>
       </c>
       <c r="D29">
-        <v>-0.01721914745398333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02382879670662415</v>
+      </c>
+      <c r="E29">
+        <v>0.03000703822511184</v>
+      </c>
+      <c r="F29">
+        <v>0.08867863816270746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0516640878307511</v>
+        <v>0.03938213695308485</v>
       </c>
       <c r="C30">
-        <v>0.06213051265537552</v>
+        <v>0.06424530929591189</v>
       </c>
       <c r="D30">
-        <v>0.03449042311848086</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1087937020001615</v>
+      </c>
+      <c r="E30">
+        <v>0.03630593601896513</v>
+      </c>
+      <c r="F30">
+        <v>0.1011661479250293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04289264610662989</v>
+        <v>0.05350042831645994</v>
       </c>
       <c r="C31">
-        <v>0.0331232091010079</v>
+        <v>0.05122208567620719</v>
       </c>
       <c r="D31">
-        <v>-0.0119905085995502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004109114237844263</v>
+      </c>
+      <c r="E31">
+        <v>0.04706243827294566</v>
+      </c>
+      <c r="F31">
+        <v>0.08015232305229936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0007345336193641078</v>
+        <v>0.003911905274993933</v>
       </c>
       <c r="C32">
-        <v>0.04745782246717522</v>
+        <v>0.03238767435676383</v>
       </c>
       <c r="D32">
-        <v>0.01387341924408578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05063235155218148</v>
+      </c>
+      <c r="E32">
+        <v>0.02116518725881577</v>
+      </c>
+      <c r="F32">
+        <v>0.06996777695380491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02599615264931926</v>
+        <v>0.02393131820128152</v>
       </c>
       <c r="C33">
-        <v>0.06078627312515519</v>
+        <v>0.05477570945351831</v>
       </c>
       <c r="D33">
-        <v>0.01985719816970838</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08318080039376342</v>
+      </c>
+      <c r="E33">
+        <v>0.05039555349251376</v>
+      </c>
+      <c r="F33">
+        <v>0.1273722695372496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05067171981286221</v>
+        <v>0.04036083431424348</v>
       </c>
       <c r="C34">
-        <v>0.05550453115754591</v>
+        <v>0.06433123958287434</v>
       </c>
       <c r="D34">
-        <v>-0.01299584130425493</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0344852995105631</v>
+      </c>
+      <c r="E34">
+        <v>-0.006337599984909623</v>
+      </c>
+      <c r="F34">
+        <v>0.07354274870490254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008193459022541183</v>
+        <v>0.01366263847388576</v>
       </c>
       <c r="C36">
-        <v>0.01317402157021469</v>
+        <v>0.01189084505809935</v>
       </c>
       <c r="D36">
-        <v>0.002368499319869417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02964743063066337</v>
+      </c>
+      <c r="E36">
+        <v>0.03539523070805751</v>
+      </c>
+      <c r="F36">
+        <v>0.08187922953402671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03082109113335878</v>
+        <v>0.02536611709055573</v>
       </c>
       <c r="C38">
-        <v>0.02815269310853302</v>
+        <v>0.02660766450914774</v>
       </c>
       <c r="D38">
-        <v>0.0002927624668610272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02768558514735833</v>
+      </c>
+      <c r="E38">
+        <v>0.03598667117761895</v>
+      </c>
+      <c r="F38">
+        <v>0.06684035468073014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04013409530641861</v>
+        <v>0.03743384070131166</v>
       </c>
       <c r="C39">
-        <v>0.0707374510920772</v>
+        <v>0.06840510351798909</v>
       </c>
       <c r="D39">
-        <v>0.0194245466426015</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05339984639074799</v>
+      </c>
+      <c r="E39">
+        <v>0.01770467205814584</v>
+      </c>
+      <c r="F39">
+        <v>0.0901445862544507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01846728342134075</v>
+        <v>0.0158595045176763</v>
       </c>
       <c r="C40">
-        <v>0.02874401320393491</v>
+        <v>0.0364658917014644</v>
       </c>
       <c r="D40">
-        <v>0.03439159591732039</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04301240276751698</v>
+      </c>
+      <c r="E40">
+        <v>0.07116749809187517</v>
+      </c>
+      <c r="F40">
+        <v>0.08647399049270744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01026458927399146</v>
+        <v>0.01806581038744172</v>
       </c>
       <c r="C41">
-        <v>0.005845176181218593</v>
+        <v>0.005452582775896624</v>
       </c>
       <c r="D41">
-        <v>-0.001372753742670062</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01983454899413279</v>
+      </c>
+      <c r="E41">
+        <v>0.03773557738443191</v>
+      </c>
+      <c r="F41">
+        <v>0.07120955473435818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.002087950478531863</v>
+        <v>0.001093104168746622</v>
       </c>
       <c r="C42">
-        <v>0.008033352156001003</v>
+        <v>0.004156299885471797</v>
       </c>
       <c r="D42">
-        <v>0.007241313948972852</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001119278397750133</v>
+      </c>
+      <c r="E42">
+        <v>0.007222076934500958</v>
+      </c>
+      <c r="F42">
+        <v>-0.007659322072961605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03130067274133282</v>
+        <v>0.02970148338867912</v>
       </c>
       <c r="C43">
-        <v>0.01965104324097745</v>
+        <v>0.02030506773963302</v>
       </c>
       <c r="D43">
-        <v>0.005872274618271311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04376304784190573</v>
+      </c>
+      <c r="E43">
+        <v>0.04289466740566836</v>
+      </c>
+      <c r="F43">
+        <v>0.08379002834662934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0184603148518495</v>
+        <v>0.01479629482232056</v>
       </c>
       <c r="C44">
-        <v>0.05736533390233848</v>
+        <v>0.05193237745296684</v>
       </c>
       <c r="D44">
-        <v>0.01687854880966099</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04317605513552454</v>
+      </c>
+      <c r="E44">
+        <v>0.0583848039243569</v>
+      </c>
+      <c r="F44">
+        <v>0.09073181579622033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0002455605866523721</v>
+        <v>0.00722404011960478</v>
       </c>
       <c r="C46">
-        <v>0.02216702307445924</v>
+        <v>0.02459649185320492</v>
       </c>
       <c r="D46">
-        <v>-0.01621604988296336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01557155996346216</v>
+      </c>
+      <c r="E46">
+        <v>0.03510770965793314</v>
+      </c>
+      <c r="F46">
+        <v>0.1026268315133823</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07880916935943123</v>
+        <v>0.08597233444174018</v>
       </c>
       <c r="C47">
-        <v>0.07257883510102521</v>
+        <v>0.07787846458001461</v>
       </c>
       <c r="D47">
-        <v>-0.002784030906012455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01268480815914581</v>
+      </c>
+      <c r="E47">
+        <v>0.05443928525505468</v>
+      </c>
+      <c r="F47">
+        <v>0.07985561605590631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01888159301318144</v>
+        <v>0.01576325255840365</v>
       </c>
       <c r="C48">
-        <v>0.01224045467112533</v>
+        <v>0.01696530724001332</v>
       </c>
       <c r="D48">
-        <v>-0.004724239023824631</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02014671816169963</v>
+      </c>
+      <c r="E48">
+        <v>0.0454695879149218</v>
+      </c>
+      <c r="F48">
+        <v>0.09534243517303355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08607323978004582</v>
+        <v>0.07223214143802502</v>
       </c>
       <c r="C50">
-        <v>0.06900308356427778</v>
+        <v>0.06924620817569194</v>
       </c>
       <c r="D50">
-        <v>-0.01338910444751028</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001999682965731863</v>
+      </c>
+      <c r="E50">
+        <v>0.05162400452125115</v>
+      </c>
+      <c r="F50">
+        <v>0.06708913760234209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0116216399228672</v>
+        <v>0.01022676384004187</v>
       </c>
       <c r="C51">
-        <v>0.04645851145916595</v>
+        <v>0.03327883085528894</v>
       </c>
       <c r="D51">
-        <v>0.001247357593811464</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04927822961590304</v>
+      </c>
+      <c r="E51">
+        <v>0.02037300816461805</v>
+      </c>
+      <c r="F51">
+        <v>0.08438988666193716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.0930553404190962</v>
+        <v>0.09195333611934631</v>
       </c>
       <c r="C53">
-        <v>0.0745867139929688</v>
+        <v>0.08900105220017331</v>
       </c>
       <c r="D53">
-        <v>-0.03493331650615464</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03901573854783854</v>
+      </c>
+      <c r="E53">
+        <v>0.05418469787666245</v>
+      </c>
+      <c r="F53">
+        <v>0.08857526352227077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02768413425764474</v>
+        <v>0.02744173294591257</v>
       </c>
       <c r="C54">
-        <v>0.01979969979180262</v>
+        <v>0.02587756449488991</v>
       </c>
       <c r="D54">
-        <v>0.002687016111571265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03444548298274255</v>
+      </c>
+      <c r="E54">
+        <v>0.0388799102627801</v>
+      </c>
+      <c r="F54">
+        <v>0.09418261691463782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07431108837618561</v>
+        <v>0.08278068489967529</v>
       </c>
       <c r="C55">
-        <v>0.06765081561241214</v>
+        <v>0.0728555775692464</v>
       </c>
       <c r="D55">
-        <v>-0.03273548622440171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04715789658474934</v>
+      </c>
+      <c r="E55">
+        <v>0.04449069318589335</v>
+      </c>
+      <c r="F55">
+        <v>0.06401980824664703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1515042066963397</v>
+        <v>0.145044591649442</v>
       </c>
       <c r="C56">
-        <v>0.09222382866014113</v>
+        <v>0.1060661860021862</v>
       </c>
       <c r="D56">
-        <v>-0.02864318199654375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04960305125311228</v>
+      </c>
+      <c r="E56">
+        <v>0.04860870567191106</v>
+      </c>
+      <c r="F56">
+        <v>0.05263701180408741</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.002485128810412501</v>
+        <v>0.0009597473788361366</v>
       </c>
       <c r="C57">
-        <v>0.004401171767692662</v>
+        <v>0.002331071655688651</v>
       </c>
       <c r="D57">
-        <v>0.01421564596546718</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01455649908379341</v>
+      </c>
+      <c r="E57">
+        <v>0.006284927514150362</v>
+      </c>
+      <c r="F57">
+        <v>0.01310553600267164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.07770954214366836</v>
+        <v>0.02954141780035103</v>
       </c>
       <c r="C58">
-        <v>0.03105547547263938</v>
+        <v>0.03702071320447194</v>
       </c>
       <c r="D58">
-        <v>0.9660592985731183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.5006013083008752</v>
+      </c>
+      <c r="E58">
+        <v>0.6740879787580221</v>
+      </c>
+      <c r="F58">
+        <v>-0.4591273931664758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1350497567172948</v>
+        <v>0.1487637781123073</v>
       </c>
       <c r="C59">
-        <v>-0.2022040395981411</v>
+        <v>-0.1855465538327263</v>
       </c>
       <c r="D59">
-        <v>0.02253924260374107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0316180472258747</v>
+      </c>
+      <c r="E59">
+        <v>0.02547986692623346</v>
+      </c>
+      <c r="F59">
+        <v>0.0220531543610662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3139270489303385</v>
+        <v>0.2792123788738679</v>
       </c>
       <c r="C60">
-        <v>0.09011737395146935</v>
+        <v>0.1011784748297479</v>
       </c>
       <c r="D60">
-        <v>-0.0261524755493273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2008936989857973</v>
+      </c>
+      <c r="E60">
+        <v>-0.2809206175176684</v>
+      </c>
+      <c r="F60">
+        <v>-0.1245961570177107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03595541202285039</v>
+        <v>0.03922490318715677</v>
       </c>
       <c r="C61">
-        <v>0.06277819877442525</v>
+        <v>0.06167858748206383</v>
       </c>
       <c r="D61">
-        <v>0.01044596199646444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0473993295021452</v>
+      </c>
+      <c r="E61">
+        <v>0.02244578744880871</v>
+      </c>
+      <c r="F61">
+        <v>0.08072296555613565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01234552878145583</v>
+        <v>0.01471242863332727</v>
       </c>
       <c r="C63">
-        <v>0.03699166677796703</v>
+        <v>0.03160302783790788</v>
       </c>
       <c r="D63">
-        <v>-0.005055464062728857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02337521133827785</v>
+      </c>
+      <c r="E63">
+        <v>0.03726384235091536</v>
+      </c>
+      <c r="F63">
+        <v>0.07487456831979876</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05022893527965813</v>
+        <v>0.05496880702589414</v>
       </c>
       <c r="C64">
-        <v>0.02940169348371399</v>
+        <v>0.05304937006586539</v>
       </c>
       <c r="D64">
-        <v>-0.006282576667631967</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01132803226270174</v>
+      </c>
+      <c r="E64">
+        <v>0.02306109814509</v>
+      </c>
+      <c r="F64">
+        <v>0.0886578320687435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09254102985091442</v>
+        <v>0.06609353348983876</v>
       </c>
       <c r="C65">
-        <v>0.04581904967442524</v>
+        <v>0.04125549464390538</v>
       </c>
       <c r="D65">
-        <v>0.03319493115401392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08492322812079413</v>
+      </c>
+      <c r="E65">
+        <v>0.03323075314471496</v>
+      </c>
+      <c r="F65">
+        <v>0.02510445962759332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06363751775568048</v>
+        <v>0.04985478797376564</v>
       </c>
       <c r="C66">
-        <v>0.1056868290994472</v>
+        <v>0.09190140639709284</v>
       </c>
       <c r="D66">
-        <v>0.02372451261616768</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07961441517788152</v>
+      </c>
+      <c r="E66">
+        <v>0.01974363418655843</v>
+      </c>
+      <c r="F66">
+        <v>0.0914780587029006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0559216555788036</v>
+        <v>0.04798854775646443</v>
       </c>
       <c r="C67">
-        <v>0.03296768080738465</v>
+        <v>0.03240246398644493</v>
       </c>
       <c r="D67">
-        <v>-0.007298019364286776</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01446592892145278</v>
+      </c>
+      <c r="E67">
+        <v>0.02075895249635618</v>
+      </c>
+      <c r="F67">
+        <v>0.05326487696278132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1151240224321269</v>
+        <v>0.1538156587361452</v>
       </c>
       <c r="C68">
-        <v>-0.2874312852949075</v>
+        <v>-0.2520700022449973</v>
       </c>
       <c r="D68">
-        <v>0.004628953751296344</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01642248659012337</v>
+      </c>
+      <c r="E68">
+        <v>0.0397899629137038</v>
+      </c>
+      <c r="F68">
+        <v>0.01865742864177984</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08694347606208365</v>
+        <v>0.08622358722764921</v>
       </c>
       <c r="C69">
-        <v>0.06712518255311917</v>
+        <v>0.08492393437060453</v>
       </c>
       <c r="D69">
-        <v>-0.03127057002629557</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008296212738967119</v>
+      </c>
+      <c r="E69">
+        <v>0.02992685362921748</v>
+      </c>
+      <c r="F69">
+        <v>0.09599607867985056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1226408427396959</v>
+        <v>0.146075671361977</v>
       </c>
       <c r="C71">
-        <v>-0.2486551349080891</v>
+        <v>-0.2307407565850277</v>
       </c>
       <c r="D71">
-        <v>0.01912468175124106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01699284202280428</v>
+      </c>
+      <c r="E71">
+        <v>0.05879595968034104</v>
+      </c>
+      <c r="F71">
+        <v>0.05703383018547412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08105064159038967</v>
+        <v>0.09498686178868462</v>
       </c>
       <c r="C72">
-        <v>0.04944815549119708</v>
+        <v>0.05796962979666875</v>
       </c>
       <c r="D72">
-        <v>-0.01921572268493573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02054219982139445</v>
+      </c>
+      <c r="E72">
+        <v>0.009789521155525853</v>
+      </c>
+      <c r="F72">
+        <v>0.08077381956992559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4349871256538745</v>
+        <v>0.3454477113220878</v>
       </c>
       <c r="C73">
-        <v>0.06866648161049624</v>
+        <v>0.08283973984906333</v>
       </c>
       <c r="D73">
-        <v>0.01555300354407722</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4225881440187602</v>
+      </c>
+      <c r="E73">
+        <v>-0.4945103614712862</v>
+      </c>
+      <c r="F73">
+        <v>-0.2917258336816934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1192967143234067</v>
+        <v>0.1115973128972479</v>
       </c>
       <c r="C74">
-        <v>0.1139602346525506</v>
+        <v>0.1008838194155401</v>
       </c>
       <c r="D74">
-        <v>-0.01085184668734343</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02811834104623571</v>
+      </c>
+      <c r="E74">
+        <v>0.06597244769168528</v>
+      </c>
+      <c r="F74">
+        <v>0.0592244852549144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2624578124188732</v>
+        <v>0.2572251808909868</v>
       </c>
       <c r="C75">
-        <v>0.1232852147666707</v>
+        <v>0.1396920563073114</v>
       </c>
       <c r="D75">
-        <v>-0.04877808623806858</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1279875882230634</v>
+      </c>
+      <c r="E75">
+        <v>0.08055747570514266</v>
+      </c>
+      <c r="F75">
+        <v>0.02586263367430129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1204008038149482</v>
+        <v>0.128433882099401</v>
       </c>
       <c r="C76">
-        <v>0.103587374180773</v>
+        <v>0.1059596971221524</v>
       </c>
       <c r="D76">
-        <v>-0.03146628426345525</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05963132026814142</v>
+      </c>
+      <c r="E76">
+        <v>0.07028931554821752</v>
+      </c>
+      <c r="F76">
+        <v>0.06975121223507079</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07527145443222145</v>
+        <v>0.06182368031075537</v>
       </c>
       <c r="C77">
-        <v>0.0581076733714709</v>
+        <v>0.06667330201372751</v>
       </c>
       <c r="D77">
-        <v>0.04262564038415705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06639571070006872</v>
+      </c>
+      <c r="E77">
+        <v>0.06851519709538627</v>
+      </c>
+      <c r="F77">
+        <v>0.1176554888123074</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04376443433606613</v>
+        <v>0.04265027194520093</v>
       </c>
       <c r="C78">
-        <v>0.04166096798431178</v>
+        <v>0.05460633543335255</v>
       </c>
       <c r="D78">
-        <v>0.01374067309082854</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07259640400753375</v>
+      </c>
+      <c r="E78">
+        <v>0.02212539097867242</v>
+      </c>
+      <c r="F78">
+        <v>0.1028205833872744</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02050339677843291</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03441341200667906</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05489233749978575</v>
+      </c>
+      <c r="E79">
+        <v>0.04350133210877083</v>
+      </c>
+      <c r="F79">
+        <v>0.03467154886579946</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04595642760246654</v>
+        <v>0.03384456589564435</v>
       </c>
       <c r="C80">
-        <v>0.05328961351596099</v>
+        <v>0.05321653236074209</v>
       </c>
       <c r="D80">
-        <v>0.02560395735990748</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04732909989900694</v>
+      </c>
+      <c r="E80">
+        <v>0.007854945200327007</v>
+      </c>
+      <c r="F80">
+        <v>0.03227730418702639</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1415525334472124</v>
+        <v>0.1401005968294014</v>
       </c>
       <c r="C81">
-        <v>0.08002792805377956</v>
+        <v>0.09837267817656861</v>
       </c>
       <c r="D81">
-        <v>-0.02118870879154932</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09493598285681822</v>
+      </c>
+      <c r="E81">
+        <v>0.08363105220595228</v>
+      </c>
+      <c r="F81">
+        <v>0.02621624695492078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.07065218982474847</v>
+        <v>0.1929551524818851</v>
       </c>
       <c r="C82">
-        <v>0.04807303713354943</v>
+        <v>0.1396092325748442</v>
       </c>
       <c r="D82">
-        <v>-0.02877134056213369</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2238774745118702</v>
+      </c>
+      <c r="E82">
+        <v>0.0162116560492952</v>
+      </c>
+      <c r="F82">
+        <v>0.07780729810438748</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02801248613606495</v>
+        <v>0.02693767047472603</v>
       </c>
       <c r="C83">
-        <v>0.020500430565207</v>
+        <v>0.03808859939810583</v>
       </c>
       <c r="D83">
-        <v>0.01497750707574594</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03608761965303536</v>
+      </c>
+      <c r="E83">
+        <v>0.008358552492675782</v>
+      </c>
+      <c r="F83">
+        <v>0.05064731864362105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2374773158586908</v>
+        <v>0.2051036879609179</v>
       </c>
       <c r="C85">
-        <v>0.1156244360120397</v>
+        <v>0.1256517680849853</v>
       </c>
       <c r="D85">
-        <v>-0.1146946571062391</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1082174757034308</v>
+      </c>
+      <c r="E85">
+        <v>0.003055650269991502</v>
+      </c>
+      <c r="F85">
+        <v>-0.01400507798684787</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.005195431838252306</v>
+        <v>0.01127451249757678</v>
       </c>
       <c r="C86">
-        <v>0.02231451864588134</v>
+        <v>0.02926005271007536</v>
       </c>
       <c r="D86">
-        <v>0.02123956945038637</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0757382300398496</v>
+      </c>
+      <c r="E86">
+        <v>0.04342088868175607</v>
+      </c>
+      <c r="F86">
+        <v>0.1398306738598209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01904099653423878</v>
+        <v>0.01966483115164144</v>
       </c>
       <c r="C87">
-        <v>0.0192125937971983</v>
+        <v>0.02116387719182115</v>
       </c>
       <c r="D87">
-        <v>0.09131670212947436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09233826858593722</v>
+      </c>
+      <c r="E87">
+        <v>0.08278380273143492</v>
+      </c>
+      <c r="F87">
+        <v>0.09340047922719233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1057215368770167</v>
+        <v>0.09018184665577783</v>
       </c>
       <c r="C88">
-        <v>0.07121527036299104</v>
+        <v>0.06354450798325284</v>
       </c>
       <c r="D88">
-        <v>-0.01324689803069815</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01435137353767051</v>
+      </c>
+      <c r="E88">
+        <v>0.03291972419478881</v>
+      </c>
+      <c r="F88">
+        <v>0.06923475267455188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1911402339377681</v>
+        <v>0.227127628826803</v>
       </c>
       <c r="C89">
-        <v>-0.3761615565349853</v>
+        <v>-0.3804405248460487</v>
       </c>
       <c r="D89">
-        <v>-0.02837955665267898</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01339193408324493</v>
+      </c>
+      <c r="E89">
+        <v>0.03717785107294038</v>
+      </c>
+      <c r="F89">
+        <v>0.1006341049167291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1765685200062105</v>
+        <v>0.2043561826694611</v>
       </c>
       <c r="C90">
-        <v>-0.3451786695358165</v>
+        <v>-0.3161247494325218</v>
       </c>
       <c r="D90">
-        <v>0.003880598489907513</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.009716421036627825</v>
+      </c>
+      <c r="E90">
+        <v>0.06186523324795175</v>
+      </c>
+      <c r="F90">
+        <v>0.04897153138651809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.2042876872678856</v>
+        <v>0.1904916786083828</v>
       </c>
       <c r="C91">
-        <v>0.1120231802378932</v>
+        <v>0.1388843617388068</v>
       </c>
       <c r="D91">
-        <v>-0.04685230428956336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1016222462873119</v>
+      </c>
+      <c r="E91">
+        <v>0.0750187202552622</v>
+      </c>
+      <c r="F91">
+        <v>0.04753234362037637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.17045924086977</v>
+        <v>0.185948290774554</v>
       </c>
       <c r="C92">
-        <v>-0.2858015416454495</v>
+        <v>-0.277603709544471</v>
       </c>
       <c r="D92">
-        <v>-0.01133499738356045</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.002524638284741673</v>
+      </c>
+      <c r="E92">
+        <v>0.06798944335969247</v>
+      </c>
+      <c r="F92">
+        <v>0.07003737196815453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1995693066596698</v>
+        <v>0.2294429589735514</v>
       </c>
       <c r="C93">
-        <v>-0.3459816454574729</v>
+        <v>-0.3191947782022345</v>
       </c>
       <c r="D93">
-        <v>0.01021927252116275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003089190305043426</v>
+      </c>
+      <c r="E93">
+        <v>0.04873699232353083</v>
+      </c>
+      <c r="F93">
+        <v>0.04327011066778154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.2905333219779114</v>
+        <v>0.340146055196432</v>
       </c>
       <c r="C94">
-        <v>0.1585322716178178</v>
+        <v>0.1919204279100241</v>
       </c>
       <c r="D94">
-        <v>-0.07134467595351311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4699890431685781</v>
+      </c>
+      <c r="E94">
+        <v>0.1593396593600639</v>
+      </c>
+      <c r="F94">
+        <v>-0.44358662664198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09525542760754803</v>
+        <v>0.08203508160616302</v>
       </c>
       <c r="C95">
-        <v>0.07151090447508979</v>
+        <v>0.07420478299978508</v>
       </c>
       <c r="D95">
-        <v>0.02558291478901439</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.151182337817843</v>
+      </c>
+      <c r="E95">
+        <v>-0.1360081559899995</v>
+      </c>
+      <c r="F95">
+        <v>0.1928901383771951</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2052472287150128</v>
+        <v>0.1887051453210657</v>
       </c>
       <c r="C98">
-        <v>0.01840663986575672</v>
+        <v>0.04333338692183545</v>
       </c>
       <c r="D98">
-        <v>0.01723683520756557</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1727513507987476</v>
+      </c>
+      <c r="E98">
+        <v>-0.1570454569465832</v>
+      </c>
+      <c r="F98">
+        <v>-0.03848536659490603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01083951989823338</v>
+        <v>0.005824482371198906</v>
       </c>
       <c r="C101">
-        <v>0.02688828543627756</v>
+        <v>0.02602851360134977</v>
       </c>
       <c r="D101">
-        <v>-0.01728091375107612</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.023181534612352</v>
+      </c>
+      <c r="E101">
+        <v>0.03048799438749624</v>
+      </c>
+      <c r="F101">
+        <v>0.08820279229837395</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1222334012859759</v>
+        <v>0.1223052905666598</v>
       </c>
       <c r="C102">
-        <v>0.07627172288497598</v>
+        <v>0.1007242707132766</v>
       </c>
       <c r="D102">
-        <v>-0.04413725401870888</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05165541074917334</v>
+      </c>
+      <c r="E102">
+        <v>-0.008444857312386993</v>
+      </c>
+      <c r="F102">
+        <v>0.03970650967640298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
